--- a/medicine/Premiers secours et secourisme/Unité_militaire_d'urgence/Unité_militaire_d'urgence.xlsx
+++ b/medicine/Premiers secours et secourisme/Unité_militaire_d'urgence/Unité_militaire_d'urgence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_militaire_d%27urgence</t>
+          <t>Unité_militaire_d'urgence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unité militaire d'urgence (espagnol : Unidad Militar de Emergencias, UME; API : [uniˈðað miliˈtaɾ ðe emeɾˈxenθjas]) est une branche des Forces armées espagnoles chargées de fournir des secours en cas de catastrophe dans toute l'Espagne principalement, et à l'étranger si nécessaire. Il s'agit de la branche la plus récente des Forces armées espagnoles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_militaire_d%27urgence</t>
+          <t>Unité_militaire_d'urgence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La décision de créer l'Unité militaire d'urgence a été prise lors d'un Conseil des ministres (Espagne) de Zapatero lors du Premier gouvernement de José Luis Rodríguez Zapatero le 7 octobre 2005[1]. Ceci a été promulgué par le Real Decreto 416/2006 (Décret Royal 416/2006) du 11 avril 2006[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La décision de créer l'Unité militaire d'urgence a été prise lors d'un Conseil des ministres (Espagne) de Zapatero lors du Premier gouvernement de José Luis Rodríguez Zapatero le 7 octobre 2005. Ceci a été promulgué par le Real Decreto 416/2006 (Décret Royal 416/2006) du 11 avril 2006.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_militaire_d%27urgence</t>
+          <t>Unité_militaire_d'urgence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Intervention lors de situations d'urgence ayant leur origine dans des risques naturels ; parmi ceux-ci figurent les inondations, les débordements, les tremblements de terre, les glissements de terrain, les grandes tempêtes de neige et d'autres conditions météorologiques défavorables.
 Intervention contre les incendies de forêts.
